--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_75.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_75.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1536231884057971</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min', 'C', 'F', 'F']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.334625, 18.779705)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(54.681315, 62.15814)]</t>
+          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(96.06, 107.42)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(39.8, 48.28)]</t>
+          <t>[('0:00:02.580000', '0:00:16.360000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:08.340000', '0:01:20')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(44.2, 54.16)]</t>
+          <t>[('0:00:14.780000', '0:00:19.020000'), ('0:00:32.980000', '0:00:35.260000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:12.700000', '0:00:27.180000'), ('0:01:15.800000', '0:01:22.440000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.425</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(7.54, 16.72)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (28.14, 36.1)]</t>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[('0:00:36.180000', '0:00:37.980000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:13.420000', '0:00:17.820000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5), (84.62, 91.74)]</t>
+          <t>[('0:00:09.100000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>isophonics_266</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1183035714285714</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['A', 'A', 'A/b7'], ['G', 'A', 'A/b7']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.7, 62.32)]</t>
+          <t>[['A', 'A/7', 'A/b7'], ['G', 'A', 'A/7']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(11.94, 67.8)]</t>
+          <t>[('0:00:36.173061', '0:00:41.861950'), ('0:00:43.998185', '0:00:47.539229')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:24.787426', '0:01:26.815269'), ('0:01:23.103979', '0:01:26.183398')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (27.36, 34.92)]</t>
+          <t>[['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.88, 21.16)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(6.74, 21.54)]</t>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(86.98, 111.2)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(84.92, 105.44)]</t>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(5.68, 9.64)]</t>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(41.32, 48.94)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(83.1, 90.02)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
